--- a/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_texte/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_texte.xlsx
+++ b/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_texte/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_texte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_du_Gouverneur_g%C3%A9n%C3%A9ral_:_litt%C3%A9rature_jeunesse_de_langue_anglaise_-_texte</t>
+          <t>Prix_du_Gouverneur_général_:_littérature_jeunesse_de_langue_anglaise_-_texte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste des lauréats du prix littéraire du Gouverneur général dans la catégorie littérature jeunesse de langue anglaise - texte. Ce prix fut décerné pour la première fois en 1987, en même temps que le prix du Gouverneur général : littérature jeunesse de langue française - texte.
 Entre 1949 à 1958, un prix fut décerné dans la catégorie « Littérature juvénile ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_du_Gouverneur_g%C3%A9n%C3%A9ral_:_litt%C3%A9rature_jeunesse_de_langue_anglaise_-_texte</t>
+          <t>Prix_du_Gouverneur_général_:_littérature_jeunesse_de_langue_anglaise_-_texte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>« Littérature juvénile ».</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1949 - R.S. Lambert, Franklin of the Arctic
 1950 - Donald Dickie, The Great Adventure
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_du_Gouverneur_g%C3%A9n%C3%A9ral_:_litt%C3%A9rature_jeunesse_de_langue_anglaise_-_texte</t>
+          <t>Prix_du_Gouverneur_général_:_littérature_jeunesse_de_langue_anglaise_-_texte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>« Littérature jeunesse ».</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1987 - Morgan Nyberg, Galahad Schwartz and the Cockroach Army
 1988 - Welwyn Wilton Katz, The Third Magic
@@ -588,7 +604,7 @@
 2019 - Erin Bow, Stand on the Sky
 2020 - Eric Walters, The King of Jam Sandwiches
 2021 - Philippa Dowding, Firefly
-2022 - Jen Ferguson, The Summer of Bitter and Sweet[1]</t>
+2022 - Jen Ferguson, The Summer of Bitter and Sweet</t>
         </is>
       </c>
     </row>
